--- a/Test cases improvements report 10.05.2024.xlsx
+++ b/Test cases improvements report 10.05.2024.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Magdalena\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Magdalena\Desktop\prij\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574B3D23-88C2-409F-ABA3-939E5B8527D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9A4FCB-44A9-461F-9F6B-8757590490E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,9 +78,6 @@
     <t>Improvments report</t>
   </si>
   <si>
-    <t>date:20.05.2024</t>
-  </si>
-  <si>
     <t>It doesen't have circles around the text"Build a website that grows with your business" and the text is in three rows. The words are not  the same  size</t>
   </si>
   <si>
@@ -127,6 +124,9 @@
   </si>
   <si>
     <t>The questions should have bright letters - dream it , build it. And needs lines between questions.</t>
+  </si>
+  <si>
+    <t>date:10.05.2024</t>
   </si>
 </sst>
 </file>
@@ -955,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="92" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,7 +975,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1005,10 +1005,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -1019,10 +1019,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="D8" s="2"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -1044,7 +1044,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>13</v>
@@ -1056,10 +1056,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1067,10 +1067,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="D12" s="5"/>
     </row>
@@ -1079,10 +1079,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1090,10 +1090,10 @@
         <v>15</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
